--- a/array.xlsx
+++ b/array.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9079071D-0944-4B60-8A81-9880EA97F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35281805-4DD6-4CB4-9051-741B20E7C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,15 +392,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>764</xdr:colOff>
+      <xdr:colOff>96014</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>29054</xdr:rowOff>
+      <xdr:rowOff>19529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,7 +423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="15268575"/>
+          <a:off x="104775" y="15259050"/>
           <a:ext cx="5477639" cy="3429479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A15:A117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="D118" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A197E3-F668-4FDF-AF90-0CF8D4AC37A7}">
   <dimension ref="A1:A226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
